--- a/test1.xlsx
+++ b/test1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sokolow\Downloads\testfirst-master\testfirst\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78806B13-2A93-4A7C-A815-FBDEA742AF72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C25D54-3F21-4391-B5AE-736C21A71B53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
     <t>test111</t>
   </si>
   <si>
-    <t>test22</t>
+    <t>bla bla</t>
   </si>
 </sst>
 </file>
@@ -348,10 +348,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -361,8 +361,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
